--- a/Kehoach.xlsx
+++ b/Kehoach.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kế hoạch công việc</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Viết file báo cáo</t>
   </si>
   <si>
-    <t>Tuần 1+2</t>
-  </si>
-  <si>
     <t>Tuần 4</t>
   </si>
   <si>
-    <t>Tuần 3</t>
-  </si>
-  <si>
     <t>Tuần 5</t>
   </si>
   <si>
@@ -61,6 +55,15 @@
   </si>
   <si>
     <t>Thời gian thực</t>
+  </si>
+  <si>
+    <t>Tuần 1+2+3</t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Tiến trình đã thực hiện</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,16 +451,17 @@
     <col min="2" max="2" width="42.44140625" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -465,13 +469,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -479,11 +486,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -491,11 +499,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -506,8 +515,9 @@
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -515,11 +525,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -527,9 +538,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kehoach.xlsx
+++ b/Kehoach.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Kế hoạch công việc</t>
   </si>
@@ -27,50 +27,157 @@
     <t>Công việc</t>
   </si>
   <si>
-    <t>Tạo khung form và viết code tạo khung cho game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạo CSDL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉnh sửa Đồ họa </t>
-  </si>
-  <si>
-    <t>Test game</t>
-  </si>
-  <si>
-    <t>Viết file báo cáo</t>
-  </si>
-  <si>
-    <t>Tuần 4</t>
-  </si>
-  <si>
-    <t>Tuần 5</t>
-  </si>
-  <si>
-    <t>Tuần 6</t>
-  </si>
-  <si>
-    <t>Thời gian dự kiến</t>
-  </si>
-  <si>
     <t>Thời gian thực</t>
   </si>
   <si>
-    <t>Tuần 1+2+3</t>
-  </si>
-  <si>
-    <t>Tuần 7</t>
-  </si>
-  <si>
-    <t>Tiến trình đã thực hiện</t>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Tạo và thiết kế CSDL</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến(Số ngày)</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Giáo viên hướng dẫn:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thầy Trần Công Tú</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Người thực hiện:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lê Bá Huỳnh</t>
+    </r>
+  </si>
+  <si>
+    <t>Thiết kế Form giao diện bắt đầu game</t>
+  </si>
+  <si>
+    <t>Bảng User</t>
+  </si>
+  <si>
+    <t>Bảng Nhân vật</t>
+  </si>
+  <si>
+    <t>Bảng thành tích(Lưu điểm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu </t>
+  </si>
+  <si>
+    <t>Các button cho game</t>
+  </si>
+  <si>
+    <t>Code cho game</t>
+  </si>
+  <si>
+    <t>Code Form,các button</t>
+  </si>
+  <si>
+    <t>Kết nối CSDL vào Form và Code lại các đối tượng</t>
+  </si>
+  <si>
+    <t>Test game và chỉnh sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code nền cho từng đối tượng:
++Nhân vật
++Khung gạch
+(Sử dụng Timer,Stack,các Class cho từng đối tượng...)
+</t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
+  </si>
+  <si>
+    <t>Tổng số ngày dự kiến:</t>
+  </si>
+  <si>
+    <t>ĐỒ ÁN 1: GAME STACK JUMP</t>
+  </si>
+  <si>
+    <t>Tổng số ngày thực hiện:</t>
+  </si>
+  <si>
+    <t>Thiết kế hình ảnh và cho dữ liệu vào Database</t>
+  </si>
+  <si>
+    <t>Chọn đề tài, phân tích đề tài,tìm hiểu thực tế</t>
+  </si>
+  <si>
+    <t>Có tính năng gì đối với người dùng,ưu điểm, những điều cần cải thiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,17 +189,70 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,24 +286,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,113 +783,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.399999999999999">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.8">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="10">
+        <f>DATE(2018,9,10)</f>
+        <v>43353</v>
+      </c>
+      <c r="E9" s="10">
+        <f>DATE(2018,9,17)</f>
+        <v>43360</v>
+      </c>
+      <c r="F9" s="9">
+        <f>E9-D9</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.8">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="30">
+        <f>DATE(2018,9,18)</f>
+        <v>43361</v>
+      </c>
+      <c r="E10" s="30">
+        <f>DATE(2018,9,21)</f>
+        <v>43364</v>
+      </c>
+      <c r="F10" s="33">
+        <f>E10-D10</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.8">
+      <c r="A11" s="16"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.8">
+      <c r="A12" s="16"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.8">
+      <c r="A13" s="16">
+        <v>3</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="D13" s="30">
+        <f>DATE(2018,9,22)</f>
+        <v>43365</v>
+      </c>
+      <c r="E13" s="30">
+        <f>DATE(2018,9,23)</f>
+        <v>43366</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" ref="F13:F15" si="0">E13-D13</f>
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" customHeight="1">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="30">
+        <f>DATE(2018,9,24)</f>
+        <v>43367</v>
+      </c>
+      <c r="E15" s="30">
+        <f>DATE(2018,10,8)</f>
+        <v>43381</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.8">
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.8">
+      <c r="A20" s="16"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.8">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="B21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="10">
+        <f>DATE(2018,10,9)</f>
+        <v>43382</v>
+      </c>
+      <c r="E21" s="10">
+        <f>DATE(2018,10,16)</f>
+        <v>43389</v>
+      </c>
+      <c r="F21" s="9">
+        <f>E21-D21</f>
+        <v>7</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.8">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="10">
+        <f>DATE(2018,10,17)</f>
+        <v>43390</v>
+      </c>
+      <c r="E22" s="10">
+        <f>DATE(2018,10,21)</f>
+        <v>43394</v>
+      </c>
+      <c r="F22" s="9">
+        <f>E22-D22</f>
+        <v>4</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.8">
+      <c r="A23" s="3">
+        <v>6</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="10">
+        <f>DATE(2018,10,22)</f>
+        <v>43395</v>
+      </c>
+      <c r="E23" s="10">
+        <f>DATE(2018,10,25)</f>
+        <v>43398</v>
+      </c>
+      <c r="F23" s="9">
+        <f>E23-D23</f>
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.8">
+      <c r="A24" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="B24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="10">
+        <f>DATE(2018,10,26)</f>
+        <v>43399</v>
+      </c>
+      <c r="E24" s="10">
+        <f>DATE(2018,11,2)</f>
+        <v>43406</v>
+      </c>
+      <c r="F24" s="9">
+        <f>E24-D24</f>
+        <v>7</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="D26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="7">
+        <f>SUM(F9:F24)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1">
+      <c r="D27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="28">
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kehoach.xlsx
+++ b/Kehoach.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Kế hoạch công việc</t>
   </si>
@@ -27,57 +27,77 @@
     <t>Công việc</t>
   </si>
   <si>
-    <t>Thời gian thực</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc</t>
-  </si>
-  <si>
     <t>Tạo và thiết kế CSDL</t>
   </si>
   <si>
-    <t>Thời gian dự kiến(Số ngày)</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Giáo viên hướng dẫn:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thầy Trần Công Tú</t>
-    </r>
+    <t>Thiết kế Form giao diện bắt đầu game</t>
+  </si>
+  <si>
+    <t>Bảng User</t>
+  </si>
+  <si>
+    <t>Bảng Nhân vật</t>
+  </si>
+  <si>
+    <t>Bảng thành tích(Lưu điểm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu </t>
+  </si>
+  <si>
+    <t>Các button cho game</t>
+  </si>
+  <si>
+    <t>Code cho game</t>
+  </si>
+  <si>
+    <t>Code Form,các button</t>
+  </si>
+  <si>
+    <t>Kết nối CSDL vào Form và Code lại các đối tượng</t>
+  </si>
+  <si>
+    <t>Test game và chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Tổng số ngày dự kiến:</t>
+  </si>
+  <si>
+    <t>ĐỒ ÁN 1: GAME STACK JUMP</t>
+  </si>
+  <si>
+    <t>Tổng số ngày thực hiện:</t>
+  </si>
+  <si>
+    <t>Thiết kế hình ảnh và cho dữ liệu vào Database</t>
+  </si>
+  <si>
+    <t>Chọn đề tài, phân tích đề tài,tìm hiểu thực tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code nền cho từng đối tượng:
++Nhân vật
++Khung gạch
+(Sử dụng Timer,List,các Class cho từng đối tượng...)
+</t>
+  </si>
+  <si>
+    <t>Viết báo cáo
+Nộp báo cáo và nhận phản hồi từ giáo viên
+Giáo viên chấm điểm và nhận xét</t>
+  </si>
+  <si>
+    <t>Thời gian 
+dự kiến
+(Số ngày)</t>
+  </si>
+  <si>
+    <t>Ngày 
+bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày
+ kết thúc</t>
   </si>
   <si>
     <r>
@@ -94,7 +114,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="15"/>
         <color theme="1"/>
@@ -105,7 +124,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -115,62 +133,37 @@
     </r>
   </si>
   <si>
-    <t>Thiết kế Form giao diện bắt đầu game</t>
-  </si>
-  <si>
-    <t>Bảng User</t>
-  </si>
-  <si>
-    <t>Bảng Nhân vật</t>
-  </si>
-  <si>
-    <t>Bảng thành tích(Lưu điểm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu </t>
-  </si>
-  <si>
-    <t>Các button cho game</t>
-  </si>
-  <si>
-    <t>Code cho game</t>
-  </si>
-  <si>
-    <t>Code Form,các button</t>
-  </si>
-  <si>
-    <t>Kết nối CSDL vào Form và Code lại các đối tượng</t>
-  </si>
-  <si>
-    <t>Test game và chỉnh sửa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code nền cho từng đối tượng:
-+Nhân vật
-+Khung gạch
-(Sử dụng Timer,Stack,các Class cho từng đối tượng...)
-</t>
-  </si>
-  <si>
-    <t>Viết báo cáo</t>
-  </si>
-  <si>
-    <t>Tổng số ngày dự kiến:</t>
-  </si>
-  <si>
-    <t>ĐỒ ÁN 1: GAME STACK JUMP</t>
-  </si>
-  <si>
-    <t>Tổng số ngày thực hiện:</t>
-  </si>
-  <si>
-    <t>Thiết kế hình ảnh và cho dữ liệu vào Database</t>
-  </si>
-  <si>
-    <t>Chọn đề tài, phân tích đề tài,tìm hiểu thực tế</t>
-  </si>
-  <si>
-    <t>Có tính năng gì đối với người dùng,ưu điểm, những điều cần cải thiện</t>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Giáo viên HD:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thầy Trần Công Tú</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -220,21 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <u/>
       <sz val="15"/>
@@ -251,6 +229,19 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -394,17 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,12 +403,38 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,53 +454,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -795,71 +787,69 @@
     <col min="2" max="2" width="56.21875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.2">
+    <row r="1" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="D4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.399999999999999">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" customHeight="1">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -868,335 +858,306 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A9" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="10">
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="8">
         <f>DATE(2018,9,10)</f>
         <v>43353</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f>DATE(2018,9,17)</f>
         <v>43360</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <f>E9-D9</f>
         <v>7</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16">
+    </row>
+    <row r="10" spans="1:7" ht="16.8">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="B10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
         <f>DATE(2018,9,18)</f>
         <v>43361</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="14">
         <f>DATE(2018,9,21)</f>
         <v>43364</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="17">
         <f>E10-D10</f>
         <v>3</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="16">
+    </row>
+    <row r="11" spans="1:7" ht="16.8">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.8">
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.8">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="B13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14">
         <f>DATE(2018,9,22)</f>
         <v>43365</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="14">
         <f>DATE(2018,9,23)</f>
         <v>43366</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="17">
         <f t="shared" ref="F13:F15" si="0">E13-D13</f>
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A15" s="16">
+    </row>
+    <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A15" s="22">
         <v>3</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="14">
         <f>DATE(2018,9,24)</f>
         <v>43367</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="14">
         <f>DATE(2018,10,8)</f>
         <v>43381</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.8">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.8">
-      <c r="A21" s="3">
+    </row>
+    <row r="16" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.8">
+      <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="10">
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="8">
         <f>DATE(2018,10,9)</f>
         <v>43382</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <f>DATE(2018,10,16)</f>
         <v>43389</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f>E21-D21</f>
         <v>7</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.8">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:6" ht="16.8">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="10">
+      <c r="B22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="8">
         <f>DATE(2018,10,17)</f>
         <v>43390</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f>DATE(2018,10,21)</f>
         <v>43394</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f>E22-D22</f>
         <v>4</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.8">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:6" ht="16.8">
+      <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10">
+      <c r="B23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="8">
         <f>DATE(2018,10,22)</f>
         <v>43395</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <f>DATE(2018,10,25)</f>
         <v>43398</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f>E23-D23</f>
         <v>3</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.8">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A24" s="17">
         <v>7</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="10">
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
         <f>DATE(2018,10,26)</f>
         <v>43399</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="14">
         <f>DATE(2018,11,2)</f>
         <v>43406</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="17">
         <f>E24-D24</f>
         <v>7</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1">
-      <c r="D26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="7">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1"/>
+    <row r="29" spans="1:6" ht="18" thickBot="1">
+      <c r="D29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="5">
         <f>SUM(F9:F24)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1">
-      <c r="D27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
+    <row r="30" spans="1:6" ht="18" thickBot="1">
+      <c r="D30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
@@ -1205,26 +1166,30 @@
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A1:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="E15:E20"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="F24:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
